--- a/colordata.xlsx
+++ b/colordata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,72 +506,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>127 55 30</t>
+          <t>211 207 213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.08471211118464593</t>
+          <t>0.04607046070460705</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>212 214 214</t>
+          <t>134 104 113</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.11747187293183323</t>
+          <t>0.05094850948509485</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>195 150 87</t>
+          <t>128 25 30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.08636664460622105</t>
+          <t>0.0970189701897019</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>138 148 178</t>
+          <t>71 41 153</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.13467902051621441</t>
+          <t>0.1831978319783198</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>84 97 136</t>
+          <t>26 16 131</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.15221707478491064</t>
+          <t>0.1983739837398374</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>29 20 21</t>
+          <t>47 27 52</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.2759761747187293</t>
+          <t>0.32466124661246615</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>42 45 80</t>
+          <t>100 92 225</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.1485771012574454</t>
+          <t>0.0997289972899729</t>
         </is>
       </c>
     </row>
@@ -583,72 +583,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>115 120 202</t>
+          <t>81 81 85</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.130568356374808</t>
+          <t>0.1541708043694141</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>189 200 208</t>
+          <t>125 128 134</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.08663594470046083</t>
+          <t>0.23262164846077457</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>82 75 71</t>
+          <t>158 165 173</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.16006144393241167</t>
+          <t>0.17527308838133068</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>50 139 220</t>
+          <t>35 32 31</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.08817204301075268</t>
+          <t>0.2599304865938431</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>47 71 167</t>
+          <t>218 220 211</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.1815668202764977</t>
+          <t>0.07274081429990069</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>37 34 40</t>
+          <t>221 123 160</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.245468509984639</t>
+          <t>0.04667328699106256</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>145 131 122</t>
+          <t>126 37 72</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.10752688172043011</t>
+          <t>0.05858987090367428</t>
         </is>
       </c>
     </row>
@@ -660,72 +660,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>56 116 161</t>
+          <t>170 180 201</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.14925954793452845</t>
+          <t>0.055114200595829194</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49 56 60</t>
+          <t>44 34 45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.2182385035074045</t>
+          <t>0.17254220456802383</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>164 211 233</t>
+          <t>109 104 204</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.10950896336710834</t>
+          <t>0.06231380337636544</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109 159 188</t>
+          <t>143 133 145</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.1523772408417771</t>
+          <t>0.10774577954319761</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>81 108 111</t>
+          <t>74 74 83</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0681995323460639</t>
+          <t>0.3071002979145978</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19 26 33</t>
+          <t>220 233 232</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.17069368667186283</t>
+          <t>0.0506454816285998</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>21 70 111</t>
+          <t>101 102 118</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.13172252533125486</t>
+          <t>0.2445382323733863</t>
         </is>
       </c>
     </row>
@@ -737,72 +737,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31 25 30</t>
+          <t>218 223 234</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.35228401191658393</t>
+          <t>0.052924791086350974</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43 27 125</t>
+          <t>156 121 206</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.05660377358490566</t>
+          <t>0.06499535747446611</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>99 98 94</t>
+          <t>58 24 77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1807348560079444</t>
+          <t>0.17827298050139276</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90 116 191</t>
+          <t>26 22 162</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.052383316782522345</t>
+          <t>0.24605385329619314</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>150 151 147</t>
+          <t>172 44 51</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.19563058589870905</t>
+          <t>0.14763231197771587</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>206 205 206</t>
+          <t>100 65 144</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.14150943396226415</t>
+          <t>0.11977715877437325</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>172 71 15</t>
+          <t>50 53 214</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.020854021847070508</t>
+          <t>0.1903435468895079</t>
         </is>
       </c>
     </row>
@@ -814,1967 +814,1967 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23 26 36</t>
+          <t>122 66 183</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.24356144223693893</t>
+          <t>0.03176966989327377</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>141 157 164</t>
+          <t>161 109 130</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.10632818248712289</t>
+          <t>0.0955572102258625</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65 61 57</t>
+          <t>216 197 149</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.14643119941133187</t>
+          <t>0.03276247207743857</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>173 206 227</t>
+          <t>85 31 67</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.11479028697571744</t>
+          <t>0.2894018366840407</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>32 70 140</t>
+          <t>114 65 96</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.1291390728476821</t>
+          <t>0.14345991561181434</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>110 107 96</t>
+          <t>53 16 38</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.123252391464312</t>
+          <t>0.33655994043186893</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>82 132 192</t>
+          <t>209 136 207</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.1364974245768948</t>
+          <t>0.07048895507570117</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>p31.jpeg</t>
+          <t>p27.jpeg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>109 137 217</t>
+          <t>208 210 215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.07247455944403078</t>
+          <t>0.08156182212581345</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35 30 32</t>
+          <t>207 157 156</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.39265326383718047</t>
+          <t>0.11279826464208242</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44 65 177</t>
+          <t>131 129 142</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.13229089103996028</t>
+          <t>0.1279826464208243</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>133 135 150</t>
+          <t>98 88 89</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.09928021841648052</t>
+          <t>0.17483731019522777</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>80 78 82</t>
+          <t>38 33 34</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.13626209977661952</t>
+          <t>0.16702819956616052</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>179 84 25</t>
+          <t>71 58 59</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.05038471084636386</t>
+          <t>0.22863340563991325</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>192 204 226</t>
+          <t>162 93 92</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.1166542566393646</t>
+          <t>0.10715835140997831</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>p27.jpeg</t>
+          <t>p70.jpeg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>112 135 205</t>
+          <t>71 59 74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.08265078183172003</t>
+          <t>0.2814569536423841</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>173 171 122</t>
+          <t>156 147 147</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.07892777364110201</t>
+          <t>0.10132450331125828</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61 62 174</t>
+          <t>92 77 222</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.10449242988334574</t>
+          <t>0.05397350993377483</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>206 213 225</t>
+          <t>206 212 214</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.09828741623231571</t>
+          <t>0.05264900662251656</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>36 32 33</t>
+          <t>44 24 42</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.2874162323157111</t>
+          <t>0.2725165562913907</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>113 108 88</t>
+          <t>52 34 158</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.1370067014147431</t>
+          <t>0.05033112582781457</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>66 62 60</t>
+          <t>108 96 107</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.2112186646810623</t>
+          <t>0.18774834437086094</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>p70.jpeg</t>
+          <t>p71.jpeg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>122 110 180</t>
+          <t>110 106 108</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.11456483126110124</t>
+          <t>0.2172904935409076</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>150 62 21</t>
+          <t>212 218 209</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.11841326228537596</t>
+          <t>0.05366015236833389</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>191 160 129</t>
+          <t>72 68 75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.10390763765541741</t>
+          <t>0.29281218946671084</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>208 202 209</t>
+          <t>161 157 139</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.07904085257548846</t>
+          <t>0.10765154024511428</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>61 52 101</t>
+          <t>51 47 179</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.14890467732386028</t>
+          <t>0.054985094402119905</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>34 22 28</t>
+          <t>109 113 227</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.30728241563055064</t>
+          <t>0.038092083471348126</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>182 113 54</t>
+          <t>36 25 37</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.12788632326820604</t>
+          <t>0.23550844650546537</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>p26.jpeg</t>
+          <t>p15.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43 44 53</t>
+          <t>39 36 53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.31551204819277107</t>
+          <t>0.09406800694961528</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48 102 193</t>
+          <t>53 22 145</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.08810240963855422</t>
+          <t>0.043683296103251425</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>187 117 89</t>
+          <t>95 70 120</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.07003012048192771</t>
+          <t>0.028294862248696945</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>134 141 183</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.13667168674698796</t>
+          <t>0.39985107967237526</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>129 61 52</t>
+          <t>162 174 183</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.06739457831325302</t>
+          <t>0.04889550757011665</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>62 69 117</t>
+          <t>62 58 78</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.2082078313253012</t>
+          <t>0.20625465376023827</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>201 211 228</t>
+          <t>202 214 219</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.11408132530120482</t>
+          <t>0.17895259369570612</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>p30.jpeg</t>
+          <t>p26.jpeg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>83 81 110</t>
+          <t>134 122 129</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.18205892088712347</t>
+          <t>0.17689668318719023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>66 66 208</t>
+          <t>111 90 99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0880503144654088</t>
+          <t>0.18109035455585207</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>159 151 115</t>
+          <t>159 162 172</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.06587222773915923</t>
+          <t>0.09721692718261532</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>114 134 196</t>
+          <t>215 213 219</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0969877523998676</t>
+          <t>0.07548608463591308</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>52 47 52</t>
+          <t>77 68 74</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.4078119827871566</t>
+          <t>0.20472741136103698</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>179 89 26</t>
+          <t>218 143 154</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.07348560079443893</t>
+          <t>0.08158597026305757</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>187 201 223</t>
+          <t>52 35 42</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.08573320092684542</t>
+          <t>0.18299656881433474</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>p67.jpeg</t>
+          <t>p10.jpeg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80 65 52</t>
+          <t>27 15 120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.1909722222222222</t>
+          <t>0.2663381742738589</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>140 109 74</t>
+          <t>78 53 161</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.11770833333333333</t>
+          <t>0.12889004149377592</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>195 215 224</t>
+          <t>133 107 225</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.10520833333333333</t>
+          <t>0.10217842323651452</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>77 104 134</t>
+          <t>200 117 110</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.14548611111111112</t>
+          <t>0.037863070539419084</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>189 160 126</t>
+          <t>38 21 48</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.06875</t>
+          <t>0.31820539419087135</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>35 23 19</t>
+          <t>207 204 229</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.2076388888888889</t>
+          <t>0.04797717842323652</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>122 156 182</t>
+          <t>121 37 39</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.1642361111111111</t>
+          <t>0.09854771784232365</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>p10.jpeg</t>
+          <t>p51.jpeg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>143 151 176</t>
+          <t>161 168 173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.1340282948622487</t>
+          <t>0.12549668874172185</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37 24 27</t>
+          <t>86 89 206</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.3457433606353934</t>
+          <t>0.015894039735099338</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42 66 131</t>
+          <t>208 89 135</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.09431620749565649</t>
+          <t>0.038410596026490065</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>186 153 96</t>
+          <t>85 69 77</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.08413998510796723</t>
+          <t>0.23178807947019867</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>145 58 25</t>
+          <t>219 225 219</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.09406800694961528</t>
+          <t>0.06821192052980132</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>218 212 202</t>
+          <t>118 124 130</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.13129808885579547</t>
+          <t>0.2410596026490066</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>96 95 98</t>
+          <t>31 24 27</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.1164060560933234</t>
+          <t>0.27913907284768213</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>p47.jpeg</t>
+          <t>p6.jpeg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>151 186 220</t>
+          <t>109 78 118</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.1332836932241251</t>
+          <t>0.11141304347826086</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>163 146 114</t>
+          <t>221 105 108</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.07172995780590717</t>
+          <t>0.041304347826086954</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>52 52 125</t>
+          <t>204 188 233</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1303052866716307</t>
+          <t>0.04728260869565217</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109 111 191</t>
+          <t>33 23 170</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.14172251178952594</t>
+          <t>0.32065217391304346</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>97 81 64</t>
+          <t>157 28 32</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.18168279970215934</t>
+          <t>0.08478260869565217</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>41 34 35</t>
+          <t>54 32 62</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.18664681062298338</t>
+          <t>0.26521739130434785</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>72 114 146</t>
+          <t>112 79 219</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.1546289401836684</t>
+          <t>0.12934782608695652</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>p51.jpeg</t>
+          <t>p60.jpeg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110 135 167</t>
+          <t>136 124 123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.1815055406954528</t>
+          <t>0.07847682119205299</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>202 217 226</t>
+          <t>85 52 169</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.09400076423385556</t>
+          <t>0.14304635761589404</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>165 173 171</t>
+          <t>83 72 73</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.13679786014520443</t>
+          <t>0.17549668874172186</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>128 113 72</t>
+          <t>202 224 220</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.13030187237294613</t>
+          <t>0.07781456953642384</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>36 31 27</t>
+          <t>51 19 113</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.1811234237676729</t>
+          <t>0.176158940397351</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>57 39 136</t>
+          <t>138 98 219</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.10470003821169278</t>
+          <t>0.0837748344370861</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>68 67 62</t>
+          <t>43 33 37</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.17157050057317538</t>
+          <t>0.2652317880794702</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>p6.jpeg</t>
+          <t>p37.jpeg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>188 141 31</t>
+          <t>211 204 188</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.06850335070737155</t>
+          <t>0.06456953642384106</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>184 196 221</t>
+          <t>138 135 137</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.1712583767684289</t>
+          <t>0.19966887417218543</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>76 70 70</t>
+          <t>160 85 24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.20526185157607346</t>
+          <t>0.08609271523178808</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>46 36 34</t>
+          <t>41 35 30</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.19905683792504344</t>
+          <t>0.19105960264900662</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>134 159 179</t>
+          <t>77 66 62</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.16852817076197568</t>
+          <t>0.13973509933774833</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>103 90 167</t>
+          <t>102 100 100</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.13154628940183669</t>
+          <t>0.23410596026490066</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>195 176 116</t>
+          <t>227 162 49</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.05584512285927029</t>
+          <t>0.0847682119205298</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>p60.jpeg</t>
+          <t>p65.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>214 218 219</t>
+          <t>237 243 245</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.12363455809334657</t>
+          <t>0.03599801390268123</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>193 178 145</t>
+          <t>165 177 182</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.07522343594836146</t>
+          <t>0.03426017874875869</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>39 24 18</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2557100297914598</t>
+          <t>0.49826216484607744</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>81 85 156</t>
+          <t>84 46 128</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.09483614697120159</t>
+          <t>0.006206554121151936</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>121 121 115</t>
+          <t>79 76 85</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.13257199602780537</t>
+          <t>0.14548162859980138</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>142 160 194</t>
+          <t>201 211 216</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.14498510427010924</t>
+          <t>0.10650446871896722</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>74 68 69</t>
+          <t>53 49 55</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.173038728897716</t>
+          <t>0.17328699106256207</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p37.jpeg</t>
+          <t>p76.jpeg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>166 97 76</t>
+          <t>178 163 188</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.06130553487217672</t>
+          <t>0.06423841059602649</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>198 207 220</t>
+          <t>223 223 226</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.08413998510796723</t>
+          <t>0.0380794701986755</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>83 65 73</t>
+          <t>136 128 132</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.20476545048399106</t>
+          <t>0.1403973509933775</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>38 37 45</t>
+          <t>111 49 85</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.310747083643584</t>
+          <t>0.1857615894039735</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>37 63 175</t>
+          <t>93 93 97</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.11417225117895259</t>
+          <t>0.2556291390728477</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>128 159 195</t>
+          <t>97 58 203</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.11392405063291139</t>
+          <t>0.08311258278145696</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>112 89 153</t>
+          <t>63 33 58</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.11094564408041697</t>
+          <t>0.23278145695364238</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>p21.jpeg</t>
+          <t>p64.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>144 187 209</t>
+          <t>79 37 144</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0759493670886076</t>
+          <t>0.05461767626613704</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50 55 199</t>
+          <t>150 158 168</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.12261106974435344</t>
+          <t>0.03574975173783516</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>133 142 155</t>
+          <t>1 1 1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.08215438073963763</t>
+          <t>0.285253227408143</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>61 64 63</t>
+          <t>76 72 84</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.27128319682303303</t>
+          <t>0.1385302879841112</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>26 28 32</t>
+          <t>238 242 244</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.2702903946388682</t>
+          <t>0.10774577954319761</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>102 108 96</t>
+          <t>194 204 208</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.12931248448746588</t>
+          <t>0.15541211519364448</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>217 220 229</t>
+          <t>50 47 55</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.04839910647803425</t>
+          <t>0.22269116186693147</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>p71.jpg</t>
+          <t>p67.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>53 77 135</t>
+          <t>194 182 153</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.05137751303052867</t>
+          <t>0.15622353937341235</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>55 43 46</t>
+          <t>228 223 207</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.13725490196078433</t>
+          <t>0.11854360711261643</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>126 116 103</t>
+          <t>159 145 117</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.057086125589476296</t>
+          <t>0.17993226079593566</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>254 254 255</t>
+          <t>49 38 31</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0771903698188136</t>
+          <t>0.18839966130397967</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>195 207 212</t>
+          <t>121 108 89</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.18838421444527179</t>
+          <t>0.1634208298052498</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>144 156 182</t>
+          <t>84 72 64</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.06775874906924795</t>
+          <t>0.17400508044030483</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1 1 2</t>
+          <t>156 114 205</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.4209481260858774</t>
+          <t>0.01947502116850127</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>p72.jpg</t>
+          <t>p40.jpeg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>107 128 164</t>
+          <t>76 73 75</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.05112931248448747</t>
+          <t>0.24671134276495407</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>174 185 189</t>
+          <t>224 143 27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0950608091337801</t>
+          <t>0.08562918838421445</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>64 80 120</t>
+          <t>149 86 26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.08041697691734921</t>
+          <t>0.09307520476545049</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>203 212 214</t>
+          <t>213 229 223</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.10995284189625217</t>
+          <t>0.06304293869446513</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2 2 3</t>
+          <t>42 36 32</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.43286175229585505</t>
+          <t>0.387192851824274</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>34 40 57</t>
+          <t>136 144 152</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.12434847356664185</t>
+          <t>0.06800694961528915</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>254 254 254</t>
+          <t>76 62 174</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.10622983370563416</t>
+          <t>0.056341523951352696</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>p73.jpg</t>
+          <t>p17.jpeg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>253 254 254</t>
+          <t>147 154 141</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.07249255213505462</t>
+          <t>0.11931818181818182</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25 26 34</t>
+          <t>28 29 166</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.10849056603773585</t>
+          <t>0.18344155844155843</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1 0 1</t>
+          <t>25 15 25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.40615690168818275</t>
+          <t>0.2021103896103896</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80 95 132</t>
+          <t>74 81 217</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.08738828202581926</t>
+          <t>0.09659090909090909</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>191 202 206</t>
+          <t>56 50 58</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.15839126117179742</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>46 53 85</t>
+          <t>98 98 97</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.09235352532274081</t>
+          <t>0.13555194805194806</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>133 152 178</t>
+          <t>213 225 217</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.07472691161866932</t>
+          <t>0.07548701298701299</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>p56.jpeg</t>
+          <t>p16.jpeg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25 27 33</t>
+          <t>68 65 55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.3455591513843941</t>
+          <t>0.16117587430309174</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>65 70 73</t>
+          <t>161 161 138</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.10643653362099964</t>
+          <t>0.13583375570197667</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>183 215 228</t>
+          <t>193 193 170</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.08629989212513485</t>
+          <t>0.11403953370501774</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>37 56 131</t>
+          <t>41 36 28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.07874865156418555</t>
+          <t>0.20273694880892043</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>61 129 200</t>
+          <t>226 229 207</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.11003236245954692</t>
+          <t>0.10390268626457172</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>104 128 137</t>
+          <t>130 129 110</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.13951815893563466</t>
+          <t>0.1398884946781551</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>131 170 196</t>
+          <t>99 97 84</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.13340524991010427</t>
+          <t>0.1424227065382666</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>p40.jpeg</t>
+          <t>p77.jpeg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>103 119 156</t>
+          <t>58 38 54</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.10630059838085182</t>
+          <t>0.14867212707867958</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43 37 35</t>
+          <t>132 124 131</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.42872228088701164</t>
+          <t>0.1531397369074212</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>156 170 194</t>
+          <t>83 63 81</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.12917986624428018</t>
+          <t>0.2558947629684785</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>52 60 106</t>
+          <t>172 160 172</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.06898979232664555</t>
+          <t>0.08612558947629685</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>211 222 227</t>
+          <t>102 95 104</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.12530799014431537</t>
+          <t>0.24199553239017127</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>182 153 117</t>
+          <t>217 218 219</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.05455825413586765</t>
+          <t>0.045420699925539834</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>108 87 78</t>
+          <t>104 75 211</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.08694121788102781</t>
+          <t>0.06875155125341276</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>p17.jpeg</t>
+          <t>p36.jpeg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>61 55 57</t>
+          <t>150 85 23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.16920529801324502</t>
+          <t>0.10592519033432639</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>164 148 114</t>
+          <t>223 146 37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.09834437086092715</t>
+          <t>0.10327706057596822</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>78 102 158</t>
+          <t>84 73 184</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.13708609271523178</t>
+          <t>0.05428666004634227</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>193 212 218</t>
+          <t>127 119 117</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.12317880794701987</t>
+          <t>0.09996689837802052</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>28 23 24</t>
+          <t>46 37 30</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.21754966887417218</t>
+          <t>0.2939424031777557</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>134 176 202</t>
+          <t>73 70 72</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.14105960264900663</t>
+          <t>0.2717643164515061</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>120 99 73</t>
+          <t>202 220 219</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.11357615894039735</t>
+          <t>0.07083747103608076</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>p16.jpeg</t>
+          <t>p61.jpeg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>98 79 70</t>
+          <t>71 66 71</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.15529801324503312</t>
+          <t>0.3437086092715232</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>157 132 82</t>
+          <t>121 88 102</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.1076158940397351</t>
+          <t>0.12119205298013246</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>90 40 183</t>
+          <t>55 28 144</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.07185430463576159</t>
+          <t>0.13841059602649006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>149 166 202</t>
+          <t>155 143 168</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.17350993377483442</t>
+          <t>0.03642384105960265</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>185 202 225</t>
+          <t>215 221 238</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.1119205298013245</t>
+          <t>0.026158940397350994</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>114 134 166</t>
+          <t>105 72 212</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.08973509933774834</t>
+          <t>0.14403973509933773</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>39 34 46</t>
+          <t>39 21 31</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.2900662251655629</t>
+          <t>0.1900662251655629</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>p41.jpeg</t>
+          <t>p19.jpeg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>44 60 118</t>
+          <t>139 68 220</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.05860927152317881</t>
+          <t>0.07949652202716131</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>51 42 37</t>
+          <t>170 138 136</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.06260351109638954</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>123 118 96</t>
+          <t>211 220 223</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.07582781456953643</t>
+          <t>0.04935409075852931</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>122 156 221</t>
+          <t>81 30 155</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.048013245033112585</t>
+          <t>0.12090096058297449</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>161 171 166</t>
+          <t>88 40 54</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.0913907284768212</t>
+          <t>0.26134481616429284</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>82 102 178</t>
+          <t>55 16 28</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.06821192052980132</t>
+          <t>0.29811195760185494</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>214 225 225</t>
+          <t>134 77 87</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.10794701986754966</t>
+          <t>0.12818814176879761</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>p57.jpeg</t>
+          <t>p58.jpeg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>124 155 184</t>
+          <t>73 50 186</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.1369774919614148</t>
+          <t>0.12487586891757696</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>183 211 224</t>
+          <t>133 122 136</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.08038585209003216</t>
+          <t>0.08639523336643495</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>105 113 115</t>
+          <t>115 90 229</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.07749196141479099</t>
+          <t>0.07472691161866932</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>64 177 230</t>
+          <t>44 36 43</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.10289389067524116</t>
+          <t>0.3485600794438927</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27 29 33</t>
+          <t>81 73 81</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.33247588424437297</t>
+          <t>0.22070506454816285</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>47 60 105</t>
+          <t>201 210 223</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.12443729903536978</t>
+          <t>0.03624627606752731</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>51 101 181</t>
+          <t>49 24 124</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.14533762057877814</t>
+          <t>0.10849056603773585</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>p77.jpg</t>
+          <t>p78.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>74 83 83</t>
+          <t>104 52 91</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.07151725850509064</t>
+          <t>0.13133068520357497</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>65 101 149</t>
+          <t>82 84 87</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.07300720139061335</t>
+          <t>0.21201588877855015</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>182 195 203</t>
+          <t>106 77 213</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.1333498882542836</t>
+          <t>0.06951340615690169</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>216 225 228</t>
+          <t>115 111 118</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.13037000248323813</t>
+          <t>0.22318768619662363</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>123 147 166</t>
+          <t>159 147 156</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.07871864911845046</t>
+          <t>0.11842105263157894</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3 3 4</t>
+          <t>60 42 57</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.4007946362056121</t>
+          <t>0.18594836146971203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>29 41 61</t>
+          <t>210 209 213</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.11224236404271169</t>
+          <t>0.05958291956305859</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>p76.jpg</t>
+          <t>p74.jpeg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>34 38 44</t>
+          <t>67 46 157</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.12512413108242304</t>
+          <t>0.12067099567099566</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>36 62 131</t>
+          <t>91 60 90</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.03550148957298908</t>
+          <t>0.22997835497835498</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>175 193 206</t>
+          <t>134 91 125</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0583416087388282</t>
+          <t>0.16774891774891776</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>101 131 164</t>
+          <t>170 136 167</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0682720953326713</t>
+          <t>0.06493506493506493</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1 2 2</t>
+          <t>109 80 223</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.3115690168818272</t>
+          <t>0.11255411255411256</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>255 255 255</t>
+          <t>51 26 62</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.33192651439920556</t>
+          <t>0.2792207792207792</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>77 91 93</t>
+          <t>201 212 222</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.0692651439920556</t>
+          <t>0.024891774891774892</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>p74.jpg</t>
+          <t>p79.png</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>60 66 91</t>
+          <t>130 133 141</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0766939687267312</t>
+          <t>0.03277060575968222</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>32 33 40</t>
+          <t>79 62 85</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.14470091834202034</t>
+          <t>0.13579940417080438</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>89 106 144</t>
+          <t>44 39 45</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.07470836435840159</t>
+          <t>0.2358490566037736</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>199 207 210</t>
+          <t>202 211 215</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.16480516257135766</t>
+          <t>0.15119165839126117</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2784,4108 +2784,3877 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.37627202779846114</t>
+          <t>0.3185203574975174</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>155 170 179</t>
+          <t>171 181 187</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.09208240258128568</t>
+          <t>0.07472691161866932</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>252 253 253</t>
+          <t>245 248 249</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.07073715562174236</t>
+          <t>0.05114200595829196</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>p75.jpg</t>
+          <t>p23.jpeg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21 22 26</t>
+          <t>165 51 69</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.1523951352692976</t>
+          <t>0.18032786885245902</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>54 65 143</t>
+          <t>95 75 82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.04964010920824026</t>
+          <t>0.20715350223546944</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>199 208 212</t>
+          <t>209 198 210</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.11367585008687019</t>
+          <t>0.07749627421758569</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>51 55 64</t>
+          <t>56 28 37</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.10846363862000497</t>
+          <t>0.16244411326378538</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>118 144 181</t>
+          <t>140 121 127</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.04839910647803425</t>
+          <t>0.19076005961251863</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>255 255 255</t>
+          <t>138 67 224</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.47083643584015883</t>
+          <t>0.020864381520119227</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>99 109 112</t>
+          <t>227 113 125</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.05658972449739389</t>
+          <t>0.16095380029806258</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>p20.jpeg</t>
+          <t>p35.jpeg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>115 67 43</t>
+          <t>55 35 27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.07514068189341278</t>
+          <t>0.34553131597466574</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>153 124 100</t>
+          <t>98 169 214</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.08573320092684542</t>
+          <t>0.03870513722730472</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>47 42 51</t>
+          <t>56 45 154</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.25455147302217807</t>
+          <t>0.08092892329345532</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>168 194 213</t>
+          <t>232 226 215</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.05958291956305859</t>
+          <t>0.04996481351161154</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>95 141 206</t>
+          <t>223 135 27</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.10493214167494207</t>
+          <t>0.1358198451794511</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>75 78 88</t>
+          <t>170 79 8</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.20324395895398875</t>
+          <t>0.18789584799437017</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>52 57 200</t>
+          <t>110 71 45</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.2168156239655743</t>
+          <t>0.16115411681914146</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>p36.jpeg</t>
+          <t>p62.jpeg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>42 37 156</t>
+          <t>90 83 93</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0837471036080768</t>
+          <t>0.17314313821938024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>79 79 218</t>
+          <t>205 227 221</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.15160542866600463</t>
+          <t>0.04525332021642892</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>50 36 45</t>
+          <t>43 36 57</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.3247269116186693</t>
+          <t>0.34481062469257256</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>139 132 183</t>
+          <t>111 66 200</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.09202250910294604</t>
+          <t>0.14510575504181014</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>185 64 82</t>
+          <t>68 32 140</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.05494869248593181</t>
+          <t>0.13871126414166257</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>86 70 77</t>
+          <t>149 147 151</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.24097980801059252</t>
+          <t>0.04131824889326119</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>185 197 229</t>
+          <t>145 97 234</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.05196954650777888</t>
+          <t>0.1116576487948844</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>p61.jpeg</t>
+          <t>p54.jpeg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>36 32 32</t>
+          <t>80 71 76</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.22153273347812596</t>
+          <t>0.29185969556585045</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>141 168 192</t>
+          <t>127 137 227</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.1588582066397766</t>
+          <t>0.03970880211780278</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>196 214 223</t>
+          <t>219 223 218</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0952528699968973</t>
+          <t>0.07081403044341496</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>85 84 83</t>
+          <t>48 30 39</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.18957493018926466</t>
+          <t>0.2640635340833885</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>65 39 150</t>
+          <t>165 151 159</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.040024821594787464</t>
+          <t>0.08107213765718067</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>97 127 159</t>
+          <t>81 70 157</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.1545144275519702</t>
+          <t>0.08669755129053607</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>147 136 121</t>
+          <t>122 106 109</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.1402420105491778</t>
+          <t>0.1657842488418266</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>p19.jpeg</t>
+          <t>p47.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>201 223 165</t>
+          <t>73 73 83</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0423981450811527</t>
+          <t>0.304369414101291</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>51 66 204</t>
+          <t>43 33 44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.1152699569393839</t>
+          <t>0.1641012909632572</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>105 118 164</t>
+          <t>134 129 148</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.10102683007618417</t>
+          <t>0.11395233366434955</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80 80 88</t>
+          <t>102 100 116</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.28684995031467375</t>
+          <t>0.25248262164846075</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>40 41 56</t>
+          <t>217 231 231</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.2603511096389533</t>
+          <t>0.05486593843098312</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>145 156 215</t>
+          <t>170 175 191</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.11493872143093739</t>
+          <t>0.057348560079443896</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>152 151 94</t>
+          <t>112 111 213</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.07916528651871481</t>
+          <t>0.0528798411122145</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>p3.jpg</t>
+          <t>p3.jpeg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>53 46 66</t>
+          <t>125 123 113</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.10114702815432743</t>
+          <t>0.0664259927797834</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>98 97 124</t>
+          <t>130 26 30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.06221758776503302</t>
+          <t>0.10324909747292418</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>66 85 182</t>
+          <t>36 31 159</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.05596107055961071</t>
+          <t>0.32996389891696754</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>21 20 32</t>
+          <t>84 81 210</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.22453945081682308</t>
+          <t>0.11191335740072202</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>254 254 255</t>
+          <t>194 206 216</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.41988182134167534</t>
+          <t>0.08808664259927798</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>38 40 125</t>
+          <t>42 27 60</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.08133472367049009</t>
+          <t>0.251985559566787</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>147 161 196</t>
+          <t>193 61 56</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.05491831769204032</t>
+          <t>0.04837545126353791</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>p58.jpeg</t>
+          <t>p39.jpeg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>134 152 179</t>
+          <t>130 61 13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.14727393617021275</t>
+          <t>0.21449704142011836</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>32 86 145</t>
+          <t>206 123 33</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.17320478723404256</t>
+          <t>0.1341222879684418</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>65 137 197</t>
+          <t>96 87 178</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1266622340425532</t>
+          <t>0.06903353057199212</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>95 91 92</t>
+          <t>123 185 220</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.08942819148936171</t>
+          <t>0.051775147928994084</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>183 166 105</t>
+          <t>228 226 227</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.02892287234042553</t>
+          <t>0.060650887573964495</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>32 36 44</t>
+          <t>50 38 117</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.3065159574468085</t>
+          <t>0.12771203155818542</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>191 212 223</t>
+          <t>36 28 33</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.12799202127659576</t>
+          <t>0.3422090729783038</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>p78.jpg</t>
+          <t>p1.png</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25 29 38</t>
+          <t>146 153 169</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.11146971201588877</t>
+          <t>0.03102506825515016</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>171 186 193</t>
+          <t>200 211 215</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.1551638530287984</t>
+          <t>0.12534127575080664</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>228 234 236</t>
+          <t>255 255 255</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.14572989076464746</t>
+          <t>0.4959046909903202</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>84 95 101</t>
+          <t>65 63 80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.05784508440913605</t>
+          <t>0.14048150905931994</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>66 128 196</t>
+          <t>90 86 110</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.06330685203574975</t>
+          <t>0.08885579548275006</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1 1 1</t>
+          <t>37 35 48</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.4170804369414101</t>
+          <t>0.10151402333085133</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>20 53 141</t>
+          <t>56 30 155</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.049404170804369416</t>
+          <t>0.016877637130801686</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>p79.jpg</t>
+          <t>p80.jpeg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>192 203 206</t>
+          <t>175 104 92</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.19091360476663358</t>
+          <t>0.06505421184320268</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>59 48 173</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.30337636544190666</t>
+          <t>0.11509591326105087</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>124 150 169</t>
+          <t>209 209 212</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0650446871896723</t>
+          <t>0.07617458993605783</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>29 40 50</t>
+          <t>119 24 23</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.1740317775571003</t>
+          <t>0.17347789824854046</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>246 248 249</t>
+          <t>115 105 226</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.11072492552135055</t>
+          <t>0.0870169585765916</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>71 113 169</t>
+          <t>44 18 43</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.05809334657398212</t>
+          <t>0.16986377536836253</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>57 81 111</t>
+          <t>21 14 115</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.09781529294935452</t>
+          <t>0.313316652766194</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>p23.jpeg</t>
+          <t>p5.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>104 110 108</t>
+          <t>31 25 40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.07867957309506081</t>
+          <t>0.24671134276495407</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>51 94 212</t>
+          <t>40 31 156</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.10225862496897493</t>
+          <t>0.14122611069744354</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>30 31 35</t>
+          <t>106 99 124</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.3104988830975428</t>
+          <t>0.14842392653263836</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>193 210 225</t>
+          <t>198 200 216</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.08438818565400844</t>
+          <t>0.06329113924050633</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>135 159 185</t>
+          <t>94 86 219</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.08289898237776124</t>
+          <t>0.10300322660709854</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>38 36 152</t>
+          <t>157 44 46</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.13626209977661952</t>
+          <t>0.04964010920824026</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>60 63 62</t>
+          <t>60 52 78</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.20501365103003227</t>
+          <t>0.24770414494911888</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>p2.jpg</t>
+          <t>p38.jpeg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>54 60 98</t>
+          <t>150 77 18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0838466803559206</t>
+          <t>0.20422535211267606</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>253 253 254</t>
+          <t>218 138 38</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.379192334017796</t>
+          <t>0.11502347417840375</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>125 114 104</t>
+          <t>51 38 126</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.09342915811088295</t>
+          <t>0.11619718309859155</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>169 176 187</t>
+          <t>126 182 220</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.09753593429158111</t>
+          <t>0.0534037558685446</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>24 24 30</t>
+          <t>97 81 189</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.1865160848733744</t>
+          <t>0.08039906103286384</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>78 54 46</t>
+          <t>234 230 230</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.1002737850787132</t>
+          <t>0.05927230046948357</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>96 116 163</t>
+          <t>43 30 31</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.05920602327173169</t>
+          <t>0.3714788732394366</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>p35.jpeg</t>
+          <t>p2.jpeg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>50 42 44</t>
+          <t>206 197 221</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.4237881059470265</t>
+          <t>0.04626593806921676</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>207 211 221</t>
+          <t>29 17 32</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.14042978510744628</t>
+          <t>0.2867030965391621</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>80 62 202</t>
+          <t>115 97 121</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.05697151424287856</t>
+          <t>0.07395264116575592</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>56 30 145</t>
+          <t>58 38 65</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.06046976511744128</t>
+          <t>0.1766848816029144</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>161 145 174</t>
+          <t>87 45 174</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.14442778610694654</t>
+          <t>0.15300546448087432</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>59 149 208</t>
+          <t>139 96 221</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.03298350824587706</t>
+          <t>0.09581056466302368</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>103 94 99</t>
+          <t>54 22 124</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.1409295352323838</t>
+          <t>0.16757741347905283</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>p62.jpeg</t>
+          <t>p42.png</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>154 177 199</t>
+          <t>132 90 29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.13150767378874512</t>
+          <t>0.029784065524944156</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>197 221 232</t>
+          <t>78 68 89</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0806500150466446</t>
+          <t>0.03524447753785059</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>65 91 137</t>
+          <t>108 108 157</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.10893770689136323</t>
+          <t>0.009431620749565649</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>108 140 173</t>
+          <t>181 190 193</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.15829070117363828</t>
+          <t>0.08289898237776124</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>23 23 28</t>
+          <t>209 220 224</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.22870899789346977</t>
+          <t>0.14767932489451477</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>52 58 70</t>
+          <t>2 1 1</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.17123081552813724</t>
+          <t>0.4393149664929263</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>121 112 100</t>
+          <t>51 45 53</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.1206740896780018</t>
+          <t>0.25564656242243733</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>p15.jpeg</t>
+          <t>p56.png</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>196 152 75</t>
+          <t>201 213 216</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.14801324503311258</t>
+          <t>0.14048150905931994</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>140 133 137</t>
+          <t>122 121 133</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.073841059602649</t>
+          <t>0.018366840407048897</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>213 206 183</t>
+          <t>59 51 58</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.10496688741721855</t>
+          <t>0.2149416728716803</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>44 26 22</t>
+          <t>253 254 254</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.3350993377483444</t>
+          <t>0.0573343261355175</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>136 81 35</t>
+          <t>171 182 183</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.17119205298013246</t>
+          <t>0.08289898237776124</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>59 59 128</t>
+          <t>2 1 1</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.10993377483443709</t>
+          <t>0.26259617771159094</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>64 142 203</t>
+          <t>82 77 89</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.05695364238410596</t>
+          <t>0.22338049143708116</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>p42.jpeg</t>
+          <t>p57.png</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>46 38 37</t>
+          <t>78 78 88</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.42980132450331127</t>
+          <t>0.14792752544055596</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>204 169 139</t>
+          <t>50 48 58</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.048344370860927154</t>
+          <t>0.17795979151154132</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>125 135 115</t>
+          <t>197 210 215</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.09006622516556291</t>
+          <t>0.12037726482998262</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>208 221 223</t>
+          <t>243 247 249</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.11556291390728476</t>
+          <t>0.08016877637130802</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>63 91 158</t>
+          <t>71 23 144</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.08245033112582781</t>
+          <t>0.03598907917597419</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>134 166 197</t>
+          <t>158 169 175</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.1294701986754967</t>
+          <t>0.026061057334326135</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>84 79 64</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.10430463576158941</t>
+          <t>0.41151650533631173</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>p54.jpeg</t>
+          <t>p43.jpeg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>195 137 70</t>
+          <t>74 32 49</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.03699106256206554</t>
+          <t>0.2639867384997928</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>94 85 72</t>
+          <t>142 110 118</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.10650446871896722</t>
+          <t>0.1512639867384998</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>42 26 25</t>
+          <t>30 19 23</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.3701588877855015</t>
+          <t>0.16742644011603813</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>208 208 210</t>
+          <t>206 120 166</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.1298411122144985</t>
+          <t>0.048901782014090345</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>136 147 161</t>
+          <t>101 73 82</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.17105263157894737</t>
+          <t>0.21715706589307915</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>59 125 208</t>
+          <t>182 183 159</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.0913604766633565</t>
+          <t>0.07459593866556154</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>50 62 143</t>
+          <t>226 232 212</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.09409136047666336</t>
+          <t>0.07666804807293826</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>p1.jpg</t>
+          <t>p14.jpeg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>254 255 255</t>
+          <t>110 93 227</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.3196405648267009</t>
+          <t>0.09000708717221828</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>96 120 185</t>
+          <t>46 25 46</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.06076166024818143</t>
+          <t>0.27285613040396883</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>27 32 44</t>
+          <t>214 214 210</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.22036799315361574</t>
+          <t>0.057406094968107724</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>94 103 120</t>
+          <t>174 108 90</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.07573812580231065</t>
+          <t>0.060240963855421686</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>150 170 202</t>
+          <t>133 24 22</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.04835258878904578</t>
+          <t>0.11658398299078668</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>62 57 70</t>
+          <t>65 43 168</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.15661103979460847</t>
+          <t>0.1591070163004961</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>47 54 153</t>
+          <t>29 14 124</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.11852802738553701</t>
+          <t>0.2437987243090007</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>p39.jpeg</t>
+          <t>p63.jpeg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>182 182 182</t>
+          <t>84 49 158</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.10258107213765719</t>
+          <t>0.13452469595433109</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>134 152 160</t>
+          <t>109 110 115</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.09960291197882197</t>
+          <t>0.2275999007197816</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>217 224 227</t>
+          <t>123 84 209</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.09397749834546658</t>
+          <t>0.0972946140481509</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>106 112 96</t>
+          <t>200 219 229</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.10092653871608206</t>
+          <t>0.037726482998262596</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>37 29 29</t>
+          <t>80 77 86</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.2097948378557247</t>
+          <t>0.23504591710101763</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>68 58 57</t>
+          <t>45 41 51</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.3365320979483786</t>
+          <t>0.1717547778605113</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>111 72 195</t>
+          <t>145 149 156</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.05658504301786896</t>
+          <t>0.0960536113179449</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>p38.jpeg</t>
+          <t>p34.jpeg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>113 128 177</t>
+          <t>226 229 213</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.12711022840119166</t>
+          <t>0.0907258064516129</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>203 211 223</t>
+          <t>71 47 174</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.08308507116848726</t>
+          <t>0.14717741935483872</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>173 70 33</t>
+          <t>96 167 227</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.06090698444223767</t>
+          <t>0.056451612903225805</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>70 95 142</t>
+          <t>210 128 22</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.1552466070837471</t>
+          <t>0.21169354838709678</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>50 59 83</t>
+          <t>45 39 45</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.1254551473022178</t>
+          <t>0.27318548387096775</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>162 166 190</t>
+          <t>137 71 14</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.11022840119165839</t>
+          <t>0.15221774193548387</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>22 16 24</t>
+          <t>118 132 104</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.3379675604104601</t>
+          <t>0.06854838709677419</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>p81.jpg</t>
+          <t>p22.jpeg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>255 255 255</t>
+          <t>199 216 215</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.2990066225165563</t>
+          <t>0.17108251324753973</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>39 44 45</t>
+          <t>107 92 99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.14370860927152318</t>
+          <t>0.20060560181680545</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>88 134 197</t>
+          <t>38 27 32</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.03145695364238411</t>
+          <t>0.14988644965934897</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0 0 0</t>
+          <t>71 57 64</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.3447019867549669</t>
+          <t>0.2149886449659349</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>177 203 215</t>
+          <t>144 156 156</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.06754966887417219</t>
+          <t>0.1566994700984103</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>72 84 101</t>
+          <t>108 90 215</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.07086092715231788</t>
+          <t>0.028766086298258896</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>128 141 126</t>
+          <t>182 124 124</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.04271523178807947</t>
+          <t>0.07797123391370174</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>p80.jpg</t>
+          <t>p55.png</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>222 228 230</t>
+          <t>221 228 230</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.12856788284934226</t>
+          <t>0.07321916108215439</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>176 190 195</t>
+          <t>192 199 201</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.13998510796723754</t>
+          <t>0.0970464135021097</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>98 141 174</t>
+          <t>159 168 171</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0583271283196823</t>
+          <t>0.039463886820551006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>27 33 49</t>
+          <t>113 116 124</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.09903201787043932</t>
+          <t>0.02506825515016133</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>79 94 97</t>
+          <t>72 58 79</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.04839910647803425</t>
+          <t>0.06031273268801191</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1 1 2</t>
+          <t>1 1 1</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.4765450483991065</t>
+          <t>0.49218168279970215</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>23 80 161</t>
+          <t>40 36 40</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.049143708116157855</t>
+          <t>0.2127078679573095</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>p55.jpeg</t>
+          <t>p41.png</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23 25 30</t>
+          <t>255 255 255</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.19299363057324842</t>
+          <t>0.037726482998262596</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>44 143 198</t>
+          <t>83 76 94</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.11146496815286625</t>
+          <t>0.07470836435840159</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>167 207 223</t>
+          <t>135 90 37</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.12547770700636943</t>
+          <t>0.016133035492678083</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>35 76 154</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.12452229299363057</t>
+          <t>0.4767932489451477</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>90 105 109</t>
+          <t>161 168 175</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.10605095541401274</t>
+          <t>0.021841648051625712</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>122 144 174</t>
+          <t>204 216 218</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.15859872611464967</t>
+          <t>0.1496649292628444</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>49 54 64</t>
+          <t>52 46 54</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.18089171974522292</t>
+          <t>0.22313229089103995</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>p4.jpg</t>
+          <t>p75.jpeg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>84 61 51</t>
+          <t>93 59 216</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.09005563282336579</t>
+          <t>0.06821192052980132</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>254 254 254</t>
+          <t>144 133 139</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.41307371349095967</t>
+          <t>0.12582781456953643</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>42 47 85</t>
+          <t>85 52 69</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0799721835883171</t>
+          <t>0.2824503311258278</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20 15 19</t>
+          <t>52 27 46</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.2221835883171071</t>
+          <t>0.17649006622516555</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>109 107 115</t>
+          <t>65 41 131</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.08657858136300417</t>
+          <t>0.08112582781456953</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>191 192 196</t>
+          <t>201 194 210</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.058066759388038944</t>
+          <t>0.07185430463576159</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>136 146 168</t>
+          <t>103 93 99</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.05006954102920723</t>
+          <t>0.19403973509933775</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>p43.jpeg</t>
+          <t>p59.jpeg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>165 176 166</t>
+          <t>77 50 175</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.11504192872117401</t>
+          <t>0.18495934959349594</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>199 213 219</t>
+          <t>150 161 181</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.1388888888888889</t>
+          <t>0.05555555555555555</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>91 74 185</t>
+          <t>44 29 41</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.03642557651991614</t>
+          <t>0.31097560975609756</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>114 122 118</t>
+          <t>209 228 238</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.12945492662473795</t>
+          <t>0.04539295392953929</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>78 71 67</t>
+          <t>53 25 119</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.26546121593291405</t>
+          <t>0.18766937669376693</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>131 152 200</t>
+          <t>116 86 219</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.08542976939203355</t>
+          <t>0.10975609756097561</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>45 40 36</t>
+          <t>114 83 94</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.22929769392033544</t>
+          <t>0.10569105691056911</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p14.jpeg</t>
+          <t>p18.jpeg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>73 77 153</t>
+          <t>159 169 141</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.09169149288315127</t>
+          <t>0.10411622276029056</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>46 43 50</t>
+          <t>33 23 26</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.3432638199271764</t>
+          <t>0.33232445520581116</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>191 202 217</t>
+          <t>70 58 62</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.13075140681893413</t>
+          <t>0.18462469733656175</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>196 175 100</t>
+          <t>43 48 184</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.13075140681893413</t>
+          <t>0.09927360774818401</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>139 140 171</t>
+          <t>212 223 213</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.09963588215822575</t>
+          <t>0.07324455205811138</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>93 127 223</t>
+          <t>114 118 97</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.070506454816286</t>
+          <t>0.13317191283292978</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>141 114 66</t>
+          <t>88 97 228</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.13339953657729228</t>
+          <t>0.07324455205811138</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>p63.jpeg</t>
+          <t>p13.jpeg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>143 164 183</t>
+          <t>115 77 131</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.13900862068965517</t>
+          <t>0.08053007135575943</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>31 30 31</t>
+          <t>173 39 38</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.3081896551724138</t>
+          <t>0.1488277268093782</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>190 212 225</t>
+          <t>103 95 227</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.09105603448275862</t>
+          <t>0.09734964322120285</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>125 122 110</t>
+          <t>24 19 142</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.09913793103448276</t>
+          <t>0.2563710499490316</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>57 70 118</t>
+          <t>217 211 226</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.08351293103448276</t>
+          <t>0.06880733944954129</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>76 73 64</t>
+          <t>57 24 61</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.15786637931034483</t>
+          <t>0.20234454638124363</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>94 123 161</t>
+          <t>48 46 184</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.12122844827586207</t>
+          <t>0.145769622833843</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>p34.jpeg</t>
+          <t>p44.jpeg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>68 59 69</t>
+          <t>77 54 58</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.22536609580541078</t>
+          <t>0.23536585365853657</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>31 27 34</t>
+          <t>43 23 30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.30553487217671876</t>
+          <t>0.33658536585365856</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>135 111 95</t>
+          <t>123 105 104</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.10300322660709854</t>
+          <t>0.11768292682926829</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>71 93 216</t>
+          <t>116 98 185</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.10349962769918093</t>
+          <t>0.03475609756097561</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>137 148 202</t>
+          <t>168 173 162</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.08215438073963763</t>
+          <t>0.10609756097560975</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>209 208 212</t>
+          <t>214 224 217</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.06279473814842393</t>
+          <t>0.10609756097560975</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>40 43 167</t>
+          <t>57 43 110</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0.11764705882352941</t>
+          <t>0.06341463414634146</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>p22.jpeg</t>
+          <t>p52.jpeg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>44 29 137</t>
+          <t>142 78 151</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.10027302060064532</t>
+          <t>0.10662251655629139</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>133 175 210</t>
+          <t>217 219 204</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.06626954579300075</t>
+          <t>0.076158940397351</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>139 128 147</t>
+          <t>155 158 143</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.08984859766691487</t>
+          <t>0.08642384105960264</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>33 28 31</t>
+          <t>42 24 48</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.39736907421196327</t>
+          <t>0.3629139072847682</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>211 212 222</t>
+          <t>197 122 206</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.0761975676346488</t>
+          <t>0.06258278145695365</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>79 73 71</t>
+          <t>85 86 92</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.1543807396376272</t>
+          <t>0.13410596026490065</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>44 82 200</t>
+          <t>93 34 96</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0.1156614544551998</t>
+          <t>0.17119205298013246</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>p82.jpg</t>
+          <t>p33.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>159 177 189</t>
+          <t>237 230 230</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.07472691161866932</t>
+          <t>0.047619047619047616</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>48 75 114</t>
+          <t>149 81 77</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.10799404170804369</t>
+          <t>0.1909130624726955</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>252 253 254</t>
+          <t>87 69 105</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.11320754716981132</t>
+          <t>0.07951070336391437</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>202 211 214</t>
+          <t>133 129 206</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.1663356504468719</t>
+          <t>0.019659239842726082</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>31 40 51</t>
+          <t>59 34 34</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.18520357497517378</t>
+          <t>0.29401485364788116</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2 3 4</t>
+          <t>106 51 48</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.2641509433962264</t>
+          <t>0.2765399737876802</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>89 122 164</t>
+          <t>190 124 121</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0.08838133068520357</t>
+          <t>0.09174311926605505</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>p83.jpg</t>
+          <t>p29.jpeg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0 0 0</t>
+          <t>46 30 32</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3526490066225166</t>
+          <t>0.19044170890658943</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>57 71 145</t>
+          <t>122 75 192</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.02947019867549669</t>
+          <t>0.006154960173787111</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>113 156 208</t>
+          <t>189 170 179</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.04072847682119205</t>
+          <t>0.08508327299058653</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>140 153 148</t>
+          <t>161 139 140</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.04370860927152318</t>
+          <t>0.15894279507603187</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>89 101 101</t>
+          <t>118 102 105</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.10298013245033112</t>
+          <t>0.221940622737147</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>34 40 42</t>
+          <t>81 65 67</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.16589403973509934</t>
+          <t>0.2443881245474294</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>207 218 224</t>
+          <t>228 212 213</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.26456953642384107</t>
+          <t>0.09304851556842868</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>p59.jpeg</t>
+          <t>p68.jpeg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>76 76 70</t>
+          <t>86 86 220</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.187683284457478</t>
+          <t>0.08020989505247376</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>160 175 182</t>
+          <t>112 95 102</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.14578969417679094</t>
+          <t>0.1386806596701649</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>204 222 226</t>
+          <t>65 51 65</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.09090909090909091</t>
+          <t>0.19865067466266867</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>134 134 115</t>
+          <t>159 150 137</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.15416841223292838</t>
+          <t>0.10644677661169415</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>98 132 191</t>
+          <t>198 202 207</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.14160033514872225</t>
+          <t>0.06521739130434782</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>39 39 42</t>
+          <t>40 35 164</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.20150816925010473</t>
+          <t>0.08095952023988005</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>56 63 160</t>
+          <t>27 15 35</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0.07834101382488479</t>
+          <t>0.32983508245877063</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>p18.jpeg</t>
+          <t>p48.jpeg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>184 190 216</t>
+          <t>52 26 36</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.11788079470198676</t>
+          <t>0.2208609271523179</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>59 99 166</t>
+          <t>129 126 222</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.10463576158940398</t>
+          <t>0.043377483443708606</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>68 67 70</t>
+          <t>164 155 155</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.21490066225165563</t>
+          <t>0.0923841059602649</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>39 39 43</t>
+          <t>76 71 77</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.24834437086092714</t>
+          <t>0.3089403973509934</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>129 118 83</t>
+          <t>115 107 111</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.0804635761589404</t>
+          <t>0.20264900662251656</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>143 146 168</t>
+          <t>215 220 216</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.10198675496688742</t>
+          <t>0.06456953642384106</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>76 155 220</t>
+          <t>82 67 161</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0.1317880794701987</t>
+          <t>0.06721854304635762</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>p13.jpeg</t>
+          <t>p30.png</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>169 202 219</t>
+          <t>1 1 1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.13902681231380337</t>
+          <t>0.2730206006453214</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>184 145 103</t>
+          <t>252 252 252</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.08068520357497518</t>
+          <t>0.0960536113179449</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>77 104 207</t>
+          <t>151 151 151</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.12140019860973188</t>
+          <t>0.024323653512037725</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>133 148 171</t>
+          <t>198 205 206</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.1288480635551142</t>
+          <t>0.1501613303549268</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>82 63 66</t>
+          <t>66 60 59</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.20680238331678252</t>
+          <t>0.18912881608339538</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>38 33 45</t>
+          <t>103 92 91</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.19215491559086395</t>
+          <t>0.04889550757011665</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>125 98 96</t>
+          <t>41 35 34</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0.13108242303872888</t>
+          <t>0.21841648051625714</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>p44.jpeg</t>
+          <t>p72.jpeg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>49 38 32</t>
+          <t>54 47 178</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.2402321083172147</t>
+          <t>0.09765051395007342</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>83 77 72</t>
+          <t>112 108 220</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.209284332688588</t>
+          <t>0.0565345080763583</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>161 168 155</t>
+          <t>217 216 211</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.10831721470019343</t>
+          <t>0.07488986784140969</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>119 124 111</t>
+          <t>117 98 99</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.12417794970986461</t>
+          <t>0.14904552129221732</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>156 163 219</t>
+          <t>33 17 33</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.09593810444874275</t>
+          <t>0.3002936857562408</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>211 218 219</t>
+          <t>169 158 138</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.08704061895551257</t>
+          <t>0.11160058737151249</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>101 111 170</t>
+          <t>70 49 65</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0.13500967117988394</t>
+          <t>0.20998531571218795</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p52.jpeg</t>
+          <t>p9.jpeg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>191 211 221</t>
+          <t>111 23 32</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.11842105263157894</t>
+          <t>0.11427260211106012</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>180 157 116</t>
+          <t>24 12 126</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.049155908639523335</t>
+          <t>0.28728774667278567</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>35 32 34</t>
+          <t>169 58 55</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.38803376365441905</t>
+          <t>0.08077099586966498</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>125 146 176</t>
+          <t>112 88 215</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.16037735849056603</t>
+          <t>0.10371730151445617</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>48 150 205</t>
+          <t>43 19 59</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.07125124131082423</t>
+          <t>0.20422212023864159</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>60 65 159</t>
+          <t>210 206 228</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.08887785501489573</t>
+          <t>0.05323542909591556</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>86 93 86</t>
+          <t>62 42 170</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.12388282025819265</t>
+          <t>0.1564938044974759</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>p29.jpeg</t>
+          <t>p31.png</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>77 73 99</t>
+          <t>78 72 73</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.18863241499131297</t>
+          <t>0.17547778605112932</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>49 133 222</t>
+          <t>46 41 40</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.08265078183172003</t>
+          <t>0.17150657731447008</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>126 129 152</t>
+          <t>194 202 204</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.13924050632911392</t>
+          <t>0.1526433358153388</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>182 195 214</t>
+          <t>252 253 253</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.07942417473318442</t>
+          <t>0.06726234797716554</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>154 85 44</t>
+          <t>106 100 102</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.027798461156614544</t>
+          <t>0.09133780094316207</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>41 40 47</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.34177215189873417</t>
+          <t>0.310747083643584</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>43 52 181</t>
+          <t>146 155 160</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0.14048150905931994</t>
+          <t>0.03102506825515016</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>p5.jpeg</t>
+          <t>p25.jpeg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>167 69 22</t>
+          <t>45 29 32</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.061258278145695365</t>
+          <t>0.3163527397260274</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>51 66 131</t>
+          <t>192 189 165</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.1314569536423841</t>
+          <t>0.10873287671232877</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>26 20 28</t>
+          <t>205 100 105</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.3294701986754967</t>
+          <t>0.0860445205479452</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>149 137 114</t>
+          <t>125 34 42</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.10960264900662252</t>
+          <t>0.11686643835616438</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>209 207 206</t>
+          <t>210 216 220</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.13642384105960265</t>
+          <t>0.06763698630136987</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>72 68 57</t>
+          <t>144 132 144</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.11589403973509933</t>
+          <t>0.11301369863013698</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>119 146 192</t>
+          <t>90 74 82</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.11589403973509933</t>
+          <t>0.1913527397260274</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>p68.jpeg</t>
+          <t>p32.jpeg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>97 108 124</t>
+          <t>140 77 36</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.07914262159934048</t>
+          <t>0.1548771407297096</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>79 70 67</t>
+          <t>221 223 212</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.13643858202802966</t>
+          <t>0.024075452965996526</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>173 174 178</t>
+          <t>187 134 104</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.16075845012366036</t>
+          <t>0.07644576818069</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>137 135 137</t>
+          <t>63 42 45</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.13437757625721353</t>
+          <t>0.24621494167287167</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>125 166 198</t>
+          <t>240 161 40</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.09068425391591096</t>
+          <t>0.13104988830975428</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>210 220 225</t>
+          <t>202 105 10</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.14880461665292663</t>
+          <t>0.2692975924547034</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>34 25 22</t>
+          <t>92 72 101</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.24979389942291838</t>
+          <t>0.09803921568627451</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>p48.jpeg</t>
+          <t>p24.jpeg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>51 83 113</t>
+          <t>92 74 99</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.12858828155721588</t>
+          <t>0.1470710427918571</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>81 74 66</t>
+          <t>119 111 117</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.1293747542272906</t>
+          <t>0.1429164935604487</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>176 208 227</t>
+          <t>203 212 212</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.11679119150609517</t>
+          <t>0.13169921063564602</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>124 161 185</t>
+          <t>61 48 60</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.18128195045222179</t>
+          <t>0.09721645201495638</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>21 48 78</t>
+          <t>173 176 178</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.09398348407392842</t>
+          <t>0.22019110926464477</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>86 123 146</t>
+          <t>149 147 145</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.1875737318128195</t>
+          <t>0.19858745326132116</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>45 37 32</t>
+          <t>128 88 170</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.16240660637042864</t>
+          <t>0.06231823847112588</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>p9.jpeg</t>
+          <t>p8.jpeg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>142 170 197</t>
+          <t>132 97 229</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.13339953657729228</t>
+          <t>0.07925867507886436</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>103 83 62</t>
+          <t>75 56 76</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.11486262826878517</t>
+          <t>0.15063091482649843</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>88 124 186</t>
+          <t>77 52 199</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.1254551473022178</t>
+          <t>0.14313880126182965</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>159 140 117</t>
+          <t>122 108 127</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.07348560079443893</t>
+          <t>0.057570977917981075</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>45 34 28</t>
+          <t>35 24 49</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.3114862628268785</t>
+          <t>0.2807570977917981</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>199 210 217</t>
+          <t>213 223 233</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.17808672624958624</t>
+          <t>0.044952681388012616</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>62 79 127</t>
+          <t>40 18 143</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0.06322409798080106</t>
+          <t>0.24369085173501578</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>p25.jpeg</t>
+          <t>p21.png</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>79 122 201</t>
+          <t>252 254 254</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.10206108765830643</t>
+          <t>0.01961271102284012</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>160 123 88</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.07126893469083685</t>
+          <t>0.5754716981132075</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>152 113 197</t>
+          <t>129 141 142</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.06257760119195431</t>
+          <t>0.0176266137040715</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>84 68 72</t>
+          <t>66 64 81</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.20983362304444997</t>
+          <t>0.03699106256206554</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>175 194 202</t>
+          <t>36 33 40</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.10926247827166626</t>
+          <t>0.21077457795431975</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>45 33 40</t>
+          <t>201 215 217</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.25006208095356347</t>
+          <t>0.09210526315789473</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>53 37 181</t>
+          <t>176 189 191</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.19493419418922275</t>
+          <t>0.047418073485600794</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>p33.jpeg</t>
+          <t>p73.jpeg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31 52 168</t>
+          <t>42 22 36</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.1708043694141013</t>
+          <t>0.30695940347970174</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>148 133 185</t>
+          <t>169 118 210</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.07745779543197617</t>
+          <t>0.045567522783761395</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>198 193 226</t>
+          <t>213 221 201</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.046425024826216486</t>
+          <t>0.1043910521955261</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>61 103 212</t>
+          <t>117 95 101</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.06678252234359483</t>
+          <t>0.1383595691797846</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>65 59 68</t>
+          <t>106 59 151</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.20630585898709036</t>
+          <t>0.04971002485501243</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>31 28 42</t>
+          <t>71 50 70</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.34309831181727907</t>
+          <t>0.24109362054681027</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>114 85 129</t>
+          <t>163 152 141</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.08912611717974181</t>
+          <t>0.11391880695940348</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>p64.jpeg</t>
+          <t>p20.png</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>112 119 113</t>
+          <t>65 62 71</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.13941884355738185</t>
+          <t>0.18714321171506576</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>187 215 225</t>
+          <t>255 255 255</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.08570589961843264</t>
+          <t>0.22660709853561678</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>54 96 150</t>
+          <t>82 78 91</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.10537129439389492</t>
+          <t>0.06850335070737155</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>28 25 25</t>
+          <t>49 44 49</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.2717933665981802</t>
+          <t>0.1129312484487466</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>97 150 198</t>
+          <t>148 157 160</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.10771940123275608</t>
+          <t>0.008687019111442046</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>58 66 71</t>
+          <t>0 0 0</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.17816260639859113</t>
+          <t>0.35790518739141225</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>154 166 167</t>
+          <t>200 210 215</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0.11182858820076313</t>
+          <t>0.038222884090345</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>p65.jpeg</t>
+          <t>p49.jpeg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>61 69 66</t>
+          <t>43 22 28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.19966887417218543</t>
+          <t>0.252361673414305</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>90 139 189</t>
+          <t>116 90 99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.1304635761589404</t>
+          <t>0.10256410256410256</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>42 78 158</t>
+          <t>69 41 54</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.08841059602649007</t>
+          <t>0.2505623031938821</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>166 207 230</t>
+          <t>225 214 205</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.09801324503311258</t>
+          <t>0.06072874493927125</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>22 24 30</t>
+          <t>89 69 73</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.2390728476821192</t>
+          <t>0.15294646873594242</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>143 166 165</t>
+          <t>149 125 119</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.10099337748344371</t>
+          <t>0.09086819613135402</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>101 116 111</t>
+          <t>186 164 153</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0.1433774834437086</t>
+          <t>0.0899685110211426</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>p32.jpeg</t>
+          <t>p69.jpeg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>75 67 78</t>
+          <t>110 102 109</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.14328259430840504</t>
+          <t>0.16650115855676928</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>130 124 144</t>
+          <t>50 35 131</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.1029119788219722</t>
+          <t>0.05329361138695796</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>87 118 215</t>
+          <t>45 30 44</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.09166115155526142</t>
+          <t>0.30221780867262493</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>37 31 35</t>
+          <t>210 215 217</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.3454665784248842</t>
+          <t>0.05792783846408474</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>165 81 25</t>
+          <t>74 63 73</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.04897418927862343</t>
+          <t>0.24859318106587222</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>39 51 172</t>
+          <t>158 148 151</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.15784248841826604</t>
+          <t>0.10427010923535253</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>180 196 224</t>
+          <t>82 70 216</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.10986101919258769</t>
+          <t>0.0671962926183383</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>p24.jpeg</t>
+          <t>p4.jpeg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>57 141 227</t>
+          <t>218 225 225</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.07942417473318442</t>
+          <t>0.06624605678233439</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>47 50 57</t>
+          <t>39 25 53</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.3454951600893522</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>80 81 86</t>
+          <t>79 81 221</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.21767187887813352</t>
+          <t>0.15851735015772872</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>122 124 122</t>
+          <t>150 133 187</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.09878381732439812</t>
+          <t>0.07097791798107256</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>44 86 194</t>
+          <t>164 59 52</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.14345991561181434</t>
+          <t>0.1167192429022082</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>179 190 197</t>
+          <t>34 28 156</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.039463886820551006</t>
+          <t>0.17586750788643532</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>190 202 93</t>
+          <t>88 70 113</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.0757011665425664</t>
+          <t>0.16167192429022081</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p8.jpeg</t>
+          <t>p28.jpeg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>80 89 182</t>
+          <t>150 139 149</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.06587222773915923</t>
+          <t>0.16237113402061856</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>46 43 53</t>
+          <t>179 199 201</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.22873220787818604</t>
+          <t>0.10979381443298969</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>143 157 163</t>
+          <t>216 235 236</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.08771929824561403</t>
+          <t>0.13195876288659794</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>108 136 216</t>
+          <t>62 51 53</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.09400860642171466</t>
+          <t>0.17525773195876287</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>169 202 218</t>
+          <t>115 102 101</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.17245945051307515</t>
+          <t>0.24175257731958763</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>93 71 72</t>
+          <t>209 194 104</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.2058920887123469</t>
+          <t>0.09896907216494845</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>132 110 95</t>
+          <t>220 148 175</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.145316120489904</t>
+          <t>0.07989690721649484</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p49.jpeg</t>
+          <t>p53.jpeg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>36 73 153</t>
+          <t>55 27 36</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.13678660049627792</t>
+          <t>0.3452173913043478</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>147 166 183</t>
+          <t>182 165 153</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.10576923076923077</t>
+          <t>0.05391304347826087</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>30 28 31</t>
+          <t>88 62 73</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.3768610421836228</t>
+          <t>0.2482608695652174</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>106 124 149</t>
+          <t>217 225 221</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.1184863523573201</t>
+          <t>0.04652173913043478</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>70 146 218</t>
+          <t>147 102 105</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.10142679900744417</t>
+          <t>0.11521739130434783</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>190 215 228</t>
+          <t>81 69 141</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.0794044665012407</t>
+          <t>0.11565217391304349</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>92 88 78</t>
+          <t>127 119 209</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0.08126550868486353</t>
+          <t>0.07521739130434782</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p69.jpeg</t>
+          <t>p45.jpeg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>129 132 135</t>
+          <t>164 167 160</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.17848146815401222</t>
+          <t>0.08973509933774834</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>37 30 30</t>
+          <t>127 120 208</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.30730478589420657</t>
+          <t>0.04701986754966887</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>136 84 212</t>
+          <t>50 23 38</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.05577545879812882</t>
+          <t>0.33311258278145695</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>218 221 223</t>
+          <t>75 56 75</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.10039582583663188</t>
+          <t>0.2509933774834437</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>78 37 142</t>
+          <t>120 103 112</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.07016912558474271</t>
+          <t>0.12317880794701987</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>169 174 178</t>
+          <t>81 64 144</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.12918315940985967</t>
+          <t>0.07450331125827815</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>89 85 85</t>
+          <t>214 221 216</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.15869017632241814</t>
+          <t>0.0814569536423841</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p28.jpeg</t>
+          <t>p12.jpeg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>177 193 104</t>
+          <t>206 80 65</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.041211519364448855</t>
+          <t>0.05505952380952381</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>66 64 62</t>
+          <t>97 69 127</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.2420556107249255</t>
+          <t>0.08928571428571429</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>181 200 217</t>
+          <t>98 92 225</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0935948361469712</t>
+          <t>0.1378968253968254</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>40 52 174</t>
+          <t>213 218 217</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.11742800397219463</t>
+          <t>0.07589285714285714</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>118 116 99</t>
+          <t>42 20 71</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.10749751737835155</t>
+          <t>0.21180555555555555</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>28 27 33</t>
+          <t>27 25 160</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.3071002979145978</t>
+          <t>0.31746031746031744</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>89 127 207</t>
+          <t>143 28 29</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0.09111221449851042</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>p53.jpeg</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>121 119 111</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>0.14867212707867958</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>79 77 66</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.1558699429138744</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>206 214 217</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.10896003971208737</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>26 26 30</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>0.17895259369570612</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>97 132 198</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>0.11218664681062299</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>45 59 140</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>0.15984115165053364</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>168 165 158</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>0.1355174981384959</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>p45.jpeg</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>113 136 132</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>0.10510776498376144</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>126 172 216</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.11130794213167995</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>39 42 44</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.2934750516681429</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>55 138 179</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>0.10687924416888102</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>44 71 126</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>0.10333628579864186</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>81 79 70</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>0.2022438736344848</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>98 84 192</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>0.07764983761440802</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>p12.jpeg</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>175 151 95</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>0.10960264900662252</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>127 105 73</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.12218543046357616</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>187 206 228</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0837748344370861</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>87 108 180</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>0.13211920529801324</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>61 61 76</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>0.1576158940397351</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>33 36 47</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>0.21026490066225165</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>136 161 202</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>0.18443708609271522</t>
+          <t>0.11259920634920635</t>
         </is>
       </c>
     </row>
